--- a/biology/Zoologie/Cicadelle_de_l'aster/Cicadelle_de_l'aster.xlsx
+++ b/biology/Zoologie/Cicadelle_de_l'aster/Cicadelle_de_l'aster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cicadelle_de_l%27aster</t>
+          <t>Cicadelle_de_l'aster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrosteles quadrilineatus
 La Cicadelle de l'aster (Macrosteles quadrilineatus) est une espèce de petits insectes hémiptères de la famille des Cicadellidae. Cet insecte est le principal vecteur d'un phytoplasme qui provoque la jaunisse de l'aster, maladie affectant de nombreuses espèces de plantes sauvages et cultivées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cicadelle_de_l%27aster</t>
+          <t>Cicadelle_de_l'aster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Amérique du Nord (Canada, États-Unis), Islande[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Amérique du Nord (Canada, États-Unis), Islande.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cicadelle_de_l%27aster</t>
+          <t>Cicadelle_de_l'aster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Forbes, 1885 : « Report of the State Entomologist on the noxious and beneficial insects of the state of Illinois », vol. 14.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cicadelle_de_l%27aster</t>
+          <t>Cicadelle_de_l'aster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cicadelle</t>
         </is>
